--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9215"/>
+    <workbookView windowWidth="17028" windowHeight="9912"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -53,23 +53,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,24 +82,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,7 +99,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,14 +137,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,7 +145,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,7 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,21 +183,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,12 +197,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -215,169 +305,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +388,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -406,21 +415,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -432,15 +426,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,16 +449,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,153 +479,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -645,54 +645,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -964,10 +964,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:3">
       <c r="A1" t="s">
@@ -982,7 +982,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>515</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <v>1800</v>

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17028" windowHeight="9912"/>
+    <workbookView windowWidth="16236" windowHeight="6504"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -44,9 +44,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -59,16 +89,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,9 +146,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,83 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -181,8 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,13 +197,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,169 +353,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +388,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -415,21 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -441,15 +450,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,148 +493,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,7 +964,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -982,13 +982,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1000</v>
+        <v>443</v>
       </c>
       <c r="B2">
-        <v>1800</v>
+        <v>140</v>
       </c>
       <c r="C2">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16236" windowHeight="6504"/>
+    <workbookView windowWidth="22044" windowHeight="9432"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>input power (W)</t>
   </si>
@@ -24,14 +24,17 @@
   <si>
     <t>cooling fluid temperature (K)</t>
   </si>
+  <si>
+    <t>initial temperature</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -44,23 +47,137 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,120 +190,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -197,181 +200,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,16 +394,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -411,15 +414,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,36 +429,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,153 +452,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -961,15 +964,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:3">
+    <row r="1" ht="45" customHeight="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -979,16 +982,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>443</v>
       </c>
       <c r="B2">
-        <v>140</v>
+        <v>1350</v>
       </c>
       <c r="C2">
-        <v>284</v>
+        <v>294</v>
+      </c>
+      <c r="D2">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22044" windowHeight="9432"/>
+    <workbookView windowWidth="22044" windowHeight="9912"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>input power (W)</t>
   </si>
@@ -27,6 +27,12 @@
   <si>
     <t>initial temperature</t>
   </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>1.33</t>
+  </si>
 </sst>
 </file>
 
@@ -34,9 +40,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -48,27 +54,134 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,113 +196,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -200,19 +206,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,163 +338,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,30 +397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -429,26 +411,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,153 +453,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -964,15 +970,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:4">
+    <row r="1" ht="45" customHeight="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -985,8 +991,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>443</v>
       </c>
@@ -999,6 +1008,9 @@
       <c r="D2">
         <v>296</v>
       </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
